--- a/biology/Botanique/Jean-François_Boursault-Malherbe/Jean-François_Boursault-Malherbe.xlsx
+++ b/biology/Botanique/Jean-François_Boursault-Malherbe/Jean-François_Boursault-Malherbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
+          <t>Jean-François_Boursault-Malherbe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jean-François Boursault, également appelé Boursault-Malherbe, né le 19 janvier 1750 à Paris paroisse Saint-Paul[1], mort le 25 avril 1842 dans le même ville dans l'ancien 2e arrondissement[2], est un acteur, un dramaturge, un directeur de théâtre, un homme d'affaires et homme politique de la Révolution française.
+Jean-François Boursault, également appelé Boursault-Malherbe, né le 19 janvier 1750 à Paris paroisse Saint-Paul, mort le 25 avril 1842 dans le même ville dans l'ancien 2e arrondissement, est un acteur, un dramaturge, un directeur de théâtre, un homme d'affaires et homme politique de la Révolution française.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
+          <t>Jean-François_Boursault-Malherbe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,24 +524,96 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrière-petit-fils du poète dramatique Edme Boursault, Jean-François Boursault-Malherbe est le fils de Jean-Claude Boursault (né en 1725), un riche drapier du quartier des Innocents qui le destine au barreau, et de Marguerite-Françoise Cols. Préférant le théâtre, il quitte sa famille pour suivre une troupe ambulante où il occupe bientôt le premier rang, sous le nom de « Malherbe », emprunté au poète François de Malherbe. À Bourg-en-Bresse, il enlève la fille d'un tailleur, Jeanne Perrier, qu'il épouse en premières noces.
 Le 5 décembre 1778, il débute avec succès à Paris dans Le Philosophe marié et dans La Gageure imprévue. Puis il prend la direction du Grand-Théâtre de Marseille, avant de prendre la tête de celui de Palerme, sous la protection du vice-roi de Sicile, le marquis de Caraccioli. Endetté, il s'attire la bienveillance de Ferdinand Ier, qui lui vient en aide.
 Rentré en France en 1789, il s'enthousiasme pour les idées nouvelles et se lie avec le comédien Collot d'Herbois, dont il avait été le condisciple au collège. Il fait construire en moins de deux mois à Paris, passage des Nourrices, entre les rues Saint-Martin et Quincampoix, le théâtre Molière, inauguré le 18 juin 1791. Dans cette salle, il fait jouer les pièces révolutionnaires de Ronsin, notamment La Ligue des fanatiques et des tyrans. Mais le théâtre est fermé après le 10 août 1792.
-Mandat à la Convention
-Boursault prend part à la journée du 20 juin 1792 au terme de laquelle les parisiens investissent le palais des Tuileries, font coiffer à Louis XVI le bonnet phrygien mais échouent à lui faire retirer son veto. La monarchie prend fin à l'issue de la journée du 10 août 1792. Les bataillons de fédérés bretons et marseillais et les insurgés parisiens prennent le palais des Tuileries. Louis XVI est destitué et incarcéré avec sa famille à la tour du Temple. 
-En septembre de la même année, Jean-François Boursault est élu député suppléant de Paris, le deuxième sur huit, à la Convention nationale[3]. Il est exclu du club des Jacobins à la fin du mois de décembre, accusé « d'avoir voulu faire égorger des patriotes par le bataillon de Marseillais qui résident à Paris »[4]. Il est admis à siéger à la Convention le 19 mars 1793, à la faveur de la démission de Pierre-Louis Manuel et du refus de Louis-Marie Lullier, premier suppléant de Paris, de siéger[5]. En avril, il vote contre la mise en accusation de Jean-Paul Marat au titre qu'il ne se trouve « pas assez éclairé »[6]. En mai, il ne participe pas au scrutin sur le rétablissement de la Commission des Douze[7]. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-François_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mandat à la Convention</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boursault prend part à la journée du 20 juin 1792 au terme de laquelle les parisiens investissent le palais des Tuileries, font coiffer à Louis XVI le bonnet phrygien mais échouent à lui faire retirer son veto. La monarchie prend fin à l'issue de la journée du 10 août 1792. Les bataillons de fédérés bretons et marseillais et les insurgés parisiens prennent le palais des Tuileries. Louis XVI est destitué et incarcéré avec sa famille à la tour du Temple. 
+En septembre de la même année, Jean-François Boursault est élu député suppléant de Paris, le deuxième sur huit, à la Convention nationale. Il est exclu du club des Jacobins à la fin du mois de décembre, accusé « d'avoir voulu faire égorger des patriotes par le bataillon de Marseillais qui résident à Paris ». Il est admis à siéger à la Convention le 19 mars 1793, à la faveur de la démission de Pierre-Louis Manuel et du refus de Louis-Marie Lullier, premier suppléant de Paris, de siéger. En avril, il vote contre la mise en accusation de Jean-Paul Marat au titre qu'il ne se trouve « pas assez éclairé ». En mai, il ne participe pas au scrutin sur le rétablissement de la Commission des Douze. 
 Sa déconfiture incite Roland à lui confier la garde du mobilier des Tuileries, afin qu'il ait un logement et un salaire, tandis que le Club des jacobins l'exclut pour cause de banqueroute, le 30 décembre 1792. Boursault-Malherbe est admis à siéger à la Convention le 22 mars 1793 en remplacement de Pierre-Louis Manuel, démissionnaire. Il reste dans l'ombre et échappe ainsi à la proscription des girondins. Dénoncé à Robespierre pour avoir sauvé Buzot, Savary, Delahaye et Lesage après le 31 mai en les déguisant en charretiers et en les faisant conduire à Caen, il est sauvé par Collot d'Herbois, qui le fait nommer représentant en mission en Bretagne en octobre 1793, pour acheter des chevaux pour l'armée à Rennes. Toutefois, à Nantes, il se heurte à Jean-Baptiste Carrier et est accusé d'avoir profité de ses fonctions pour s'enrichir. Par son activité brouillonne et indépendante, il contrarie plusieurs fois les plans du général Hoche, dénonce le général Rossignol le 27 juillet 1794 et passe à l'armée du Nord pour y rétablir l'ordre, sans y réussir.
 Envoyé en août 1794 aux armées des côtes de Brest et de Cherbourg, il destitue les maires sans-culotte de Caen et de Saint-Malo et beaucoup de partisans de la Terreur, fait libérer de nombreux suspects à Brest et à Nantes, notamment la sœur de Charette.
 Il est chargé de différentes missions politiques dans l'ouest et notamment dans la Mayenne, où il tient une conduite relativement modérée. Il fait arrêter un certain nombre de terroristes à Laval, supprime la Commission militaire révolutionnaire du département de la Mayenne et réorganise le tribunal criminel, qui reprend ses fonctions le 16 octobre 1794. Il est un de ceux qui contribuèrent le plus à la mise en accusation de François Joachim Esnue-Lavallée et de ses complices. Il pacifie le département de la Mayenne jusqu'à la fin de 1794. Au commencement de 1795, il pacifie également le district de Domfront[a].
 Puis, peu avant l'insurrection royaliste du 13 vendémiaire an IV, il est envoyé en mission dans le Vaucluse afin d'apaiser les esprits excités pendant la mission d'Étienne Christophe Maignet.
-Sous le Directoire
-Le 23 vendémiaire an IV, il est élu député du Vaucluse au Conseil des Cinq-Cents. Sorti de cette assemblée au premier renouvellement par cinquième, il revient à la vie privée et rachète le théâtre Molière, relevé par l'acteur Lachapelle[b] sous le nom de « théâtre des Variétés nationales et étrangères », où il ne joue que des traductions de William Shakespeare, Calderón, Lope de Vega, Kotzebue ou Schiller.
-Le 21 germinal an X, Jeanne Perrier, avec laquelle il a eu deux filles, fait prononcer leur divorce à la mairie d'Yerres. Le 13 vendémiaire an XI, il épouse en secondes noces Rose-Marie-Alberthe Bocquillon[c], avec laquelle il a une fille, Alberte-Alexandrine, rue des Fossés-Montmartre, à Paris le 11 ventôse an XII[8]. Une seconde fille, Léonie-Amable-Albertine, naît en 1820, l'épouse de Jean-Georges Kastner.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-François_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le Directoire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 23 vendémiaire an IV, il est élu député du Vaucluse au Conseil des Cinq-Cents. Sorti de cette assemblée au premier renouvellement par cinquième, il revient à la vie privée et rachète le théâtre Molière, relevé par l'acteur Lachapelle[b] sous le nom de « théâtre des Variétés nationales et étrangères », où il ne joue que des traductions de William Shakespeare, Calderón, Lope de Vega, Kotzebue ou Schiller.
+Le 21 germinal an X, Jeanne Perrier, avec laquelle il a eu deux filles, fait prononcer leur divorce à la mairie d'Yerres. Le 13 vendémiaire an XI, il épouse en secondes noces Rose-Marie-Alberthe Bocquillon[c], avec laquelle il a une fille, Alberte-Alexandrine, rue des Fossés-Montmartre, à Paris le 11 ventôse an XII. Une seconde fille, Léonie-Amable-Albertine, naît en 1820, l'épouse de Jean-Georges Kastner.
 En 1806, il est propriétaire d'une maison de campagne à Yerres, près de Villeneuve-Saint-Georges, dont le jardin est renommé pour ses plantes exotiques.
-Après le décret de 1807, il abandonne le théâtre et obtient une concession des boues[9] et vidanges de Paris, ainsi que d'une maison de jeux, qui lui assurent une grosse fortune, grâce à laquelle il réunit une importante collection de tableaux et cultive, dans de magnifiques serres chaudes construites dans ses jardins, à Pigalle, dans le triangle formé par les rues Blanche, Pigalle et La Bruyère, les plantes les plus rares. Il introduit ainsi en France la Rosa multiflora en 1808 ou le « rosier de lady Banks » (Rosa Banksiae « alba plena ») en 1817. Il est également à l'origine de la « rose Boursault » en 1818-1820.
-À l'automne 1811, Chateaubriand et Savary se rencontrent dans ces jardins[10].
+Après le décret de 1807, il abandonne le théâtre et obtient une concession des boues et vidanges de Paris, ainsi que d'une maison de jeux, qui lui assurent une grosse fortune, grâce à laquelle il réunit une importante collection de tableaux et cultive, dans de magnifiques serres chaudes construites dans ses jardins, à Pigalle, dans le triangle formé par les rues Blanche, Pigalle et La Bruyère, les plantes les plus rares. Il introduit ainsi en France la Rosa multiflora en 1808 ou le « rosier de lady Banks » (Rosa Banksiae « alba plena ») en 1817. Il est également à l'origine de la « rose Boursault » en 1818-1820.
+À l'automne 1811, Chateaubriand et Savary se rencontrent dans ces jardins.
 Le 6 décembre 1821, à 17 ans, Alberte-Alexandrine se marie à Notre-Dame de Lorette avec Marie-Émile-Amédée Cozette de Rubempré, propriétaire, né à Amiens le 4 décembre 1792. Une fille, Alberte-Isidore, naît le 21 octobre 1824. Malheureuse en couple, elle devient au printemps 1829 la maîtresse de Stendhal, à qui elle inspire, partiellement, le personnage de Mathilde de la Mole dans Le Rouge et le Noir, puis de Delacroix et de Mérimée, avant de mourir à Nice le 21 octobre 1873.
 En 1827, Boursault est l'un des fondateurs de la Société royale d'horticulture de Paris.
 En 1830, s'occupant à nouveau de théâtre, il rachète pour trois millions de francs le privilège de l'Opéra-Comique et la salle Ventadour où il est installé, mais c'est un gouffre financier et il doit renoncer deux ans plus tard, ayant accumulé un passif de 600 000 francs. Il doit vendre ses collections, ainsi que sa maison et ses jardins de la rue Blanche. Sur l'emplacement de ses jardins sont construites des maisons de rapport dont la rue centrale a conservé le nom de rue Boursault.
@@ -538,62 +622,66 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-François_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Boursault lui rend hommage à Paris 17e.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-François_Boursault-Malherbe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Fran%C3%A7ois_Boursault-Malherbe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les Réjouissances flamandes, divertissement en proses mêlé de vaudevilles, Douai, 1779.
 Le Prix d'honneur, pièce en prose ornée de chants et de vaudevilles, Caen, 1780.
